--- a/main_features.xlsx
+++ b/main_features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1020" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="6760" yWindow="920" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>1. 总路程</t>
   </si>
@@ -36,9 +36,6 @@
     <t>5. 平均速度</t>
   </si>
   <si>
-    <t>6. 中间速度</t>
-  </si>
-  <si>
     <t>7. sd速度</t>
   </si>
   <si>
@@ -51,98 +48,578 @@
     <t>10. 行驶平均速度</t>
   </si>
   <si>
-    <t>11. 加速度</t>
-  </si>
-  <si>
-    <t>12. 减速度</t>
-  </si>
-  <si>
-    <t>13. 平均加速度</t>
-  </si>
-  <si>
-    <t>14. 平均减速度</t>
-  </si>
-  <si>
-    <t>15. 加速时间</t>
-  </si>
-  <si>
-    <t>16. 减速时间</t>
-  </si>
-  <si>
-    <t>17. sd加速度</t>
-  </si>
-  <si>
-    <t>18. sd减速度</t>
-  </si>
-  <si>
-    <t>19. 急加速</t>
-  </si>
-  <si>
-    <t>20. 急减速</t>
-  </si>
-  <si>
-    <t>21. 高速行驶时间</t>
-  </si>
-  <si>
-    <t>22. 低速行驶时间</t>
-  </si>
-  <si>
-    <t>23. 常速行驶时间</t>
-  </si>
-  <si>
-    <t>24. 行驶角度</t>
-  </si>
-  <si>
-    <t>25. 行驶弧度</t>
-  </si>
-  <si>
-    <t>26. 向心加速度</t>
-  </si>
-  <si>
-    <t>27. 切向加速度</t>
-  </si>
-  <si>
-    <t>28. 综合加速度</t>
-  </si>
-  <si>
-    <t>29. sd向心加速度</t>
-  </si>
-  <si>
-    <t>30. sd切向加速度</t>
-  </si>
-  <si>
-    <t>31. sd综合加速度</t>
-  </si>
-  <si>
-    <t>32. 平均向心加速度</t>
-  </si>
-  <si>
-    <t>33. 平均切向加速度</t>
-  </si>
-  <si>
-    <t>34. 平均综合加速度</t>
-  </si>
-  <si>
-    <t>35. 转弯速度</t>
-  </si>
-  <si>
-    <t>36. 转弯时间</t>
-  </si>
-  <si>
-    <t>35. 平均转弯速度</t>
-  </si>
-  <si>
-    <t>36. sd转弯速度</t>
-  </si>
-  <si>
-    <t>37. 急转弯</t>
+    <t>distance(trip_data)</t>
+  </si>
+  <si>
+    <t>length(nrows(trip_data))</t>
+  </si>
+  <si>
+    <t>(y^2 + x^2)^0.5</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>calcSpeed()</t>
+  </si>
+  <si>
+    <t>mean()</t>
+  </si>
+  <si>
+    <t>median()</t>
+  </si>
+  <si>
+    <t>sd()</t>
+  </si>
+  <si>
+    <t>f(2)/f(1)</t>
+  </si>
+  <si>
+    <t>length(which(speed==0))/f(3)</t>
+  </si>
+  <si>
+    <t>mean(which(speed&gt;0))</t>
+  </si>
+  <si>
+    <t>diff(speed&gt;0)</t>
+  </si>
+  <si>
+    <t>diff(speed&lt;0)</t>
+  </si>
+  <si>
+    <t>f(11)/f(11+12)</t>
+  </si>
+  <si>
+    <t>f(12)/f(11+12)</t>
+  </si>
+  <si>
+    <t>which(acc&gt;3)</t>
+  </si>
+  <si>
+    <t>which(dec&lt;-3)</t>
+  </si>
+  <si>
+    <t>which(speed&lt;2.6)</t>
+  </si>
+  <si>
+    <t>which(speed&gt;22)</t>
+  </si>
+  <si>
+    <t>which(7&lt;speed&lt;17)</t>
+  </si>
+  <si>
+    <t>degree_cal()</t>
+  </si>
+  <si>
+    <t>calcCurvature()</t>
+  </si>
+  <si>
+    <t>calcTangAccel()</t>
+  </si>
+  <si>
+    <t>calcNormAccel()</t>
+  </si>
+  <si>
+    <t>totalAccel()</t>
+  </si>
+  <si>
+    <t>speed[tp]</t>
+  </si>
+  <si>
+    <t>which(turn_speed&gt;=13.9)</t>
+  </si>
+  <si>
+    <t>f(35)/f(4)</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>中间速度</t>
+    </r>
+  </si>
+  <si>
+    <t>11. 行驶sd速度</t>
+  </si>
+  <si>
+    <t>12. 行驶中间速度</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>平均加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>平均减速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>加速时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>减速时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18. sd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19. sd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>减速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>中间加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>中间减速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>急加速</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>急减速</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">24. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>高速行驶时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">25. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>低速行驶时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">26. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>常速行驶时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>减速度</t>
+    </r>
+  </si>
+  <si>
+    <t>rp,tp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>行驶角度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">28. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>行驶弧度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>32. sd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>向心加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>33. sd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>切向加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>34. sd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>综合加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>平均向心加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">36. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>平均切向加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">37. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>平均综合加速度</t>
+    </r>
+  </si>
+  <si>
+    <t>29,30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">38. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>中间向心加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">39. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>中间切向加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>中间综合加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">29. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>向心加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>切向加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">31. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>综合加速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">41. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>转弯速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">42 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>转弯时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">43. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>平均转弯速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>44. sd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>转弯速度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">46. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>急转弯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">45. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+      </rPr>
+      <t>中间转弯速度</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,16 +627,100 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria (Headings)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria (Headings)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Libian SC Regular"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,14 +728,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,211 +1181,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18">
+      <c r="A13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18">
+      <c r="A14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18">
+      <c r="A15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="16" spans="1:4" ht="18">
+      <c r="A16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="17" spans="1:4" ht="18">
+      <c r="A17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18">
+      <c r="A18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18">
+      <c r="A19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18">
+      <c r="A20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18">
+      <c r="A21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18">
+      <c r="A22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18">
+      <c r="A23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18">
+      <c r="A24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18">
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18">
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18">
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18">
+      <c r="A28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="13">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18">
+      <c r="A29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="8">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="18">
+      <c r="A30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="13">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18">
+      <c r="A31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="13">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18">
+      <c r="A32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="13">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18">
+      <c r="A33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18">
+      <c r="A34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18">
+      <c r="A35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18">
+      <c r="A36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18">
+      <c r="A37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18">
+      <c r="A38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18">
+      <c r="A39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18">
+      <c r="A40" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18">
+      <c r="A41" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18">
+      <c r="A42" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="9">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18">
+      <c r="A43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18">
+      <c r="A44" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18">
+      <c r="A45" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="46" spans="1:4" ht="18">
+      <c r="A46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18">
+      <c r="A47" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10">
+        <f>SUM(C4:C47)</f>
+        <v>125</v>
+      </c>
+      <c r="D48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
